--- a/resources/chunks/10010000.xlsx
+++ b/resources/chunks/10010000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3870" windowWidth="13380" windowHeight="7290" tabRatio="417"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13935" windowHeight="7395" tabRatio="417"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="5">
   <si>
     <t>ground</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>door</t>
+  </si>
+  <si>
+    <t>treeEl</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="90">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -91,13 +108,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -106,6 +116,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -124,6 +148,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -131,14 +169,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -157,6 +195,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -164,6 +216,39 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -171,12 +256,535 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF128017"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF21C94D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF128017"/>
+      <color rgb="FF21C94D"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,7 +1076,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:P12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="27" customHeight="1"/>
@@ -534,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -581,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -628,10 +1236,10 @@
     </row>
     <row r="4" spans="1:16" ht="54" customHeight="1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -658,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
@@ -678,10 +1286,10 @@
     </row>
     <row r="5" spans="1:16" ht="54" customHeight="1">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -708,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>
@@ -890,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -958,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" t="s">
         <v>1</v>
@@ -978,7 +1586,7 @@
     </row>
     <row r="11" spans="1:16" ht="54" customHeight="1">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1008,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" t="s">
         <v>1</v>
@@ -1028,16 +1636,16 @@
     </row>
     <row r="12" spans="1:16" ht="54" customHeight="1">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -1055,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" t="s">
         <v>1</v>
@@ -1078,19 +1686,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="road">
+    <cfRule type="containsText" dxfId="89" priority="4" operator="containsText" text="road">
       <formula>NOT(ISERROR(SEARCH("road",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="water">
+    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="water">
       <formula>NOT(ISERROR(SEARCH("water",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="ground">
+    <cfRule type="containsText" dxfId="87" priority="6" operator="containsText" text="ground">
       <formula>NOT(ISERROR(SEARCH("ground",A1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:P12">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="door">
+    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="door">
       <formula>NOT(ISERROR(SEARCH("door",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+      <formula>"treeLi"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
+      <formula>"treeEl"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
